--- a/Data/aearep-832/candidatepackages.xlsx
+++ b/Data/aearep-832/candidatepackages.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>(Potential) missing package found</t>
   </si>
@@ -25,15 +25,9 @@
     <t>estout</t>
   </si>
   <si>
-    <t>filelist</t>
-  </si>
-  <si>
     <t>ivreg2</t>
   </si>
   <si>
-    <t>unique</t>
-  </si>
-  <si>
     <t>ranktest</t>
   </si>
   <si>
@@ -49,9 +43,6 @@
     <t>missing</t>
   </si>
   <si>
-    <t>network</t>
-  </si>
-  <si>
     <t>title</t>
   </si>
   <si>
@@ -67,9 +58,6 @@
     <t>index</t>
   </si>
   <si>
-    <t>lars</t>
-  </si>
-  <si>
     <t>addnotes</t>
   </si>
   <si>
@@ -79,15 +67,6 @@
     <t>cv</t>
   </si>
   <si>
-    <t>next</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>zip</t>
-  </si>
-  <si>
     <t>dash</t>
   </si>
   <si>
@@ -103,21 +82,12 @@
     <t>dirname</t>
   </si>
   <si>
-    <t>/home/lv39/Workspace/AEA/all//aearep-832</t>
-  </si>
-  <si>
     <t>/home/lv39/Workspace/AEA/all//aearep-832/119063/DoFiles</t>
   </si>
   <si>
-    <t>/home/lv39/Workspace/AEA/all//aearep-832/tools</t>
-  </si>
-  <si>
     <t>filename</t>
   </si>
   <si>
-    <t>PII_stata_scan.do</t>
-  </si>
-  <si>
     <t>Appendix11_sharpenedqvalues.do</t>
   </si>
   <si>
@@ -125,12 +95,6 @@
   </si>
   <si>
     <t>GrowingMarkets_replicationfile_masterdata.do</t>
-  </si>
-  <si>
-    <t>config.do</t>
-  </si>
-  <si>
-    <t>convert_graphs.do</t>
   </si>
 </sst>
 </file>
@@ -174,7 +138,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D18"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -182,13 +146,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
@@ -196,7 +160,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -220,7 +184,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -232,7 +196,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -244,7 +208,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -256,7 +220,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>23</v>
+        <v>131</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -268,7 +232,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>92</v>
+        <v>177</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -280,7 +244,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>130</v>
+        <v>293</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -292,10 +256,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>205</v>
+        <v>499</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>0.16495867073535919</v>
       </c>
       <c r="D10"/>
     </row>
@@ -304,10 +268,10 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>267</v>
+        <v>563</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>0.18611569702625275</v>
       </c>
       <c r="D11"/>
     </row>
@@ -316,10 +280,10 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>279</v>
+        <v>706</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>0.23338842391967773</v>
       </c>
       <c r="D12"/>
     </row>
@@ -328,10 +292,10 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>565</v>
+        <v>712</v>
       </c>
       <c r="C13">
-        <v>0.18733422458171844</v>
+        <v>0.2353719025850296</v>
       </c>
       <c r="D13"/>
     </row>
@@ -340,10 +304,10 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>566</v>
+        <v>998</v>
       </c>
       <c r="C14">
-        <v>0.18766577541828156</v>
+        <v>0.32991734147071838</v>
       </c>
       <c r="D14"/>
     </row>
@@ -352,10 +316,10 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>694</v>
+        <v>1385</v>
       </c>
       <c r="C15">
-        <v>0.23010610044002533</v>
+        <v>0.45785123109817505</v>
       </c>
       <c r="D15"/>
     </row>
@@ -364,10 +328,10 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>745</v>
+        <v>1414</v>
       </c>
       <c r="C16">
-        <v>0.24701590836048126</v>
+        <v>0.46743801236152649</v>
       </c>
       <c r="D16"/>
     </row>
@@ -376,10 +340,10 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>985</v>
+        <v>1503</v>
       </c>
       <c r="C17">
-        <v>0.32659152150154114</v>
+        <v>0.49685949087142944</v>
       </c>
       <c r="D17"/>
     </row>
@@ -388,96 +352,12 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>1124</v>
+        <v>2436</v>
       </c>
       <c r="C18">
-        <v>0.37267905473709106</v>
+        <v>0.80528926849365234</v>
       </c>
       <c r="D18"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>1312</v>
-      </c>
-      <c r="C19">
-        <v>0.43501326441764832</v>
-      </c>
-      <c r="D19"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>1423</v>
-      </c>
-      <c r="C20">
-        <v>0.47181698679924011</v>
-      </c>
-      <c r="D20"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>1424</v>
-      </c>
-      <c r="C21">
-        <v>0.47214853763580322</v>
-      </c>
-      <c r="D21"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>1798</v>
-      </c>
-      <c r="C22">
-        <v>0.5961538553237915</v>
-      </c>
-      <c r="D22"/>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>1817</v>
-      </c>
-      <c r="C23">
-        <v>0.60245358943939209</v>
-      </c>
-      <c r="D23"/>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>1859</v>
-      </c>
-      <c r="C24">
-        <v>0.61637932062149048</v>
-      </c>
-      <c r="D24"/>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>2424</v>
-      </c>
-      <c r="C25">
-        <v>0.80371350049972534</v>
-      </c>
-      <c r="D25"/>
     </row>
   </sheetData>
 </worksheet>
@@ -485,63 +365,39 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B4"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
